--- a/data_setup/table_data_setup.xlsx
+++ b/data_setup/table_data_setup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9768" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9768" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="997">
   <si>
     <t>Member_ID</t>
   </si>
@@ -3021,6 +3021,9 @@
   </si>
   <si>
     <t>week</t>
+  </si>
+  <si>
+    <t>assigned_to</t>
   </si>
 </sst>
 </file>
@@ -3056,12 +3059,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16893,8 +16897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G214"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21841,8 +21845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28930,9 +28934,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E253"/>
+  <dimension ref="A1:H253"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A128" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E131"/>
     </sheetView>
   </sheetViews>
@@ -28941,10 +28945,11 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="114.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -28954,11 +28959,11 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>489</v>
       </c>
@@ -28968,15 +28973,23 @@
       <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" s="5" t="str">
+        <f t="shared" ref="D2:D66" si="0">"B'"&amp;DEC2BIN(F2,COUNTIFS($B$2:$B$174,B2))&amp;"'"</f>
+        <v>B'001'</v>
       </c>
       <c r="E2" t="str">
         <f>"insert into member_groups(member_group_id,group_id,member_id,member_value) values('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;");"</f>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000001','G00001','M00001',1);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000001','G00001','M00001',B'001');</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>COUNTIFS(B2:B174,B2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>490</v>
       </c>
@@ -28986,15 +28999,19 @@
       <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'010'</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="1">"insert into member_groups(member_group_id,group_id,member_id,member_value) values('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;");"</f>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000002','G00001','M00002',B'010');</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="0">"insert into member_groups(member_group_id,group_id,member_id,member_value) values('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;");"</f>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000002','G00001','M00002',2);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>491</v>
       </c>
@@ -29004,15 +29021,19 @@
       <c r="C4" t="s">
         <v>237</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'100'</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000003','G00001','M00003',B'100');</v>
+      </c>
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000003','G00001','M00003',4);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>492</v>
       </c>
@@ -29022,15 +29043,19 @@
       <c r="C5" t="s">
         <v>238</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'00001'</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000004','G00002','M00004',B'00001');</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000004','G00002','M00004',1);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>493</v>
       </c>
@@ -29040,15 +29065,19 @@
       <c r="C6" t="s">
         <v>239</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'00010'</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000005','G00002','M00005',B'00010');</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000005','G00002','M00005',2);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>494</v>
       </c>
@@ -29058,15 +29087,19 @@
       <c r="C7" t="s">
         <v>240</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'00100'</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000006','G00002','M00006',B'00100');</v>
+      </c>
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000006','G00002','M00006',4);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>495</v>
       </c>
@@ -29076,15 +29109,19 @@
       <c r="C8" t="s">
         <v>241</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'01000'</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000007','G00002','M00007',B'01000');</v>
+      </c>
+      <c r="F8">
         <v>8</v>
       </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000007','G00002','M00007',8);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>496</v>
       </c>
@@ -29094,15 +29131,19 @@
       <c r="C9" t="s">
         <v>242</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'10000'</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000008','G00002','M00008',B'10000');</v>
+      </c>
+      <c r="F9">
         <v>16</v>
       </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000008','G00002','M00008',16);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>497</v>
       </c>
@@ -29112,15 +29153,19 @@
       <c r="C10" t="s">
         <v>243</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'00001'</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000009','G00003','M00009',B'00001');</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000009','G00003','M00009',1);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>498</v>
       </c>
@@ -29130,15 +29175,19 @@
       <c r="C11" t="s">
         <v>244</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'00010'</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000010','G00003','M00010',B'00010');</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000010','G00003','M00010',2);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>499</v>
       </c>
@@ -29148,15 +29197,19 @@
       <c r="C12" t="s">
         <v>245</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'00100'</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000011','G00003','M00011',B'00100');</v>
+      </c>
+      <c r="F12">
         <v>4</v>
       </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000011','G00003','M00011',4);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>500</v>
       </c>
@@ -29166,15 +29219,19 @@
       <c r="C13" t="s">
         <v>246</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'01000'</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000012','G00003','M00012',B'01000');</v>
+      </c>
+      <c r="F13">
         <v>8</v>
       </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000012','G00003','M00012',8);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>501</v>
       </c>
@@ -29184,15 +29241,19 @@
       <c r="C14" t="s">
         <v>247</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'10000'</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000013','G00003','M00013',B'10000');</v>
+      </c>
+      <c r="F14">
         <v>16</v>
       </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000013','G00003','M00013',16);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>502</v>
       </c>
@@ -29202,15 +29263,23 @@
       <c r="C15" t="s">
         <v>248</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5" t="str">
+        <f>"B'"&amp;DEC2BIN(F15,COUNTIFS($B$2:$B$131,B15))&amp;"'"</f>
+        <v>B'000001'</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000014','G00004','M00014',B'000001');</v>
+      </c>
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000014','G00004','M00014',1);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f>COUNTIFS($B$2:$B$131,B15)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>503</v>
       </c>
@@ -29220,15 +29289,19 @@
       <c r="C16" t="s">
         <v>249</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5" t="str">
+        <f t="shared" ref="D16:D20" si="2">"B'"&amp;DEC2BIN(F16,COUNTIFS($B$2:$B$131,B16))&amp;"'"</f>
+        <v>B'000010'</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000015','G00004','M00015',B'000010');</v>
+      </c>
+      <c r="F16">
         <v>2</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000015','G00004','M00015',2);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>504</v>
       </c>
@@ -29238,15 +29311,19 @@
       <c r="C17" t="s">
         <v>250</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>B'000100'</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000016','G00004','M00016',B'000100');</v>
+      </c>
+      <c r="F17">
         <v>4</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000016','G00004','M00016',4);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>505</v>
       </c>
@@ -29256,15 +29333,19 @@
       <c r="C18" t="s">
         <v>251</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>B'001000'</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000017','G00004','M00017',B'001000');</v>
+      </c>
+      <c r="F18">
         <v>8</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000017','G00004','M00017',8);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>506</v>
       </c>
@@ -29274,15 +29355,19 @@
       <c r="C19" t="s">
         <v>252</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>B'010000'</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000018','G00004','M00018',B'010000');</v>
+      </c>
+      <c r="F19">
         <v>16</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000018','G00004','M00018',16);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>507</v>
       </c>
@@ -29292,15 +29377,19 @@
       <c r="C20" t="s">
         <v>253</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>B'100000'</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000019','G00004','M00019',B'100000');</v>
+      </c>
+      <c r="F20">
         <v>32</v>
       </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000019','G00004','M00019',32);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>508</v>
       </c>
@@ -29310,15 +29399,19 @@
       <c r="C21" t="s">
         <v>254</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'00000001'</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000020','G00005','M00020',B'00000001');</v>
+      </c>
+      <c r="F21">
         <v>1</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000020','G00005','M00020',1);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>509</v>
       </c>
@@ -29328,15 +29421,19 @@
       <c r="C22" t="s">
         <v>255</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'00000010'</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000021','G00005','M00021',B'00000010');</v>
+      </c>
+      <c r="F22">
         <v>2</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000021','G00005','M00021',2);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>510</v>
       </c>
@@ -29346,15 +29443,19 @@
       <c r="C23" t="s">
         <v>256</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'00000100'</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000022','G00005','M00022',B'00000100');</v>
+      </c>
+      <c r="F23">
         <v>4</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000022','G00005','M00022',4);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>511</v>
       </c>
@@ -29364,15 +29465,19 @@
       <c r="C24" t="s">
         <v>257</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'00001000'</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000023','G00005','M00023',B'00001000');</v>
+      </c>
+      <c r="F24">
         <v>8</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000023','G00005','M00023',8);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>512</v>
       </c>
@@ -29382,15 +29487,19 @@
       <c r="C25" t="s">
         <v>258</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'00010000'</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000024','G00005','M00024',B'00010000');</v>
+      </c>
+      <c r="F25">
         <v>16</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000024','G00005','M00024',16);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>513</v>
       </c>
@@ -29400,15 +29509,19 @@
       <c r="C26" t="s">
         <v>259</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'00100000'</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000025','G00005','M00025',B'00100000');</v>
+      </c>
+      <c r="F26">
         <v>32</v>
       </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000025','G00005','M00025',32);</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>514</v>
       </c>
@@ -29418,15 +29531,19 @@
       <c r="C27" t="s">
         <v>260</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'01000000'</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000026','G00005','M00026',B'01000000');</v>
+      </c>
+      <c r="F27">
         <v>64</v>
       </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000026','G00005','M00026',64);</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>515</v>
       </c>
@@ -29436,15 +29553,19 @@
       <c r="C28" t="s">
         <v>261</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'10000000'</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000027','G00005','M00027',B'10000000');</v>
+      </c>
+      <c r="F28">
         <v>128</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000027','G00005','M00027',128);</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>516</v>
       </c>
@@ -29454,15 +29575,19 @@
       <c r="C29" t="s">
         <v>262</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'0000001'</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000028','G00006','M00028',B'0000001');</v>
+      </c>
+      <c r="F29">
         <v>1</v>
       </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000028','G00006','M00028',1);</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>517</v>
       </c>
@@ -29472,15 +29597,19 @@
       <c r="C30" t="s">
         <v>263</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'0000010'</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000029','G00006','M00029',B'0000010');</v>
+      </c>
+      <c r="F30">
         <v>2</v>
       </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000029','G00006','M00029',2);</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>518</v>
       </c>
@@ -29490,15 +29619,19 @@
       <c r="C31" t="s">
         <v>264</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'0000100'</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000030','G00006','M00030',B'0000100');</v>
+      </c>
+      <c r="F31">
         <v>4</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000030','G00006','M00030',4);</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>519</v>
       </c>
@@ -29508,15 +29641,19 @@
       <c r="C32" t="s">
         <v>265</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'0001000'</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000031','G00006','M00031',B'0001000');</v>
+      </c>
+      <c r="F32">
         <v>8</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000031','G00006','M00031',8);</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>520</v>
       </c>
@@ -29526,15 +29663,19 @@
       <c r="C33" t="s">
         <v>266</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'0010000'</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000032','G00006','M00032',B'0010000');</v>
+      </c>
+      <c r="F33">
         <v>16</v>
       </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000032','G00006','M00032',16);</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>521</v>
       </c>
@@ -29544,15 +29685,19 @@
       <c r="C34" t="s">
         <v>267</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'0100000'</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000033','G00006','M00033',B'0100000');</v>
+      </c>
+      <c r="F34">
         <v>32</v>
       </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000033','G00006','M00033',32);</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>522</v>
       </c>
@@ -29562,15 +29707,19 @@
       <c r="C35" t="s">
         <v>268</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'1000000'</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000034','G00006','M00034',B'1000000');</v>
+      </c>
+      <c r="F35">
         <v>64</v>
       </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000034','G00006','M00034',64);</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>523</v>
       </c>
@@ -29580,15 +29729,19 @@
       <c r="C36" t="s">
         <v>269</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'01'</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000035','G00007','M00035',B'01');</v>
+      </c>
+      <c r="F36">
         <v>1</v>
       </c>
-      <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000035','G00007','M00035',1);</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>524</v>
       </c>
@@ -29598,15 +29751,19 @@
       <c r="C37" t="s">
         <v>270</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'10'</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000036','G00007','M00036',B'10');</v>
+      </c>
+      <c r="F37">
         <v>2</v>
       </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000036','G00007','M00036',2);</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>525</v>
       </c>
@@ -29616,15 +29773,19 @@
       <c r="C38" t="s">
         <v>271</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'000001'</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000037','G00008','M00037',B'000001');</v>
+      </c>
+      <c r="F38">
         <v>1</v>
       </c>
-      <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000037','G00008','M00037',1);</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>526</v>
       </c>
@@ -29634,15 +29795,19 @@
       <c r="C39" t="s">
         <v>272</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'000010'</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000038','G00008','M00038',B'000010');</v>
+      </c>
+      <c r="F39">
         <v>2</v>
       </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000038','G00008','M00038',2);</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>527</v>
       </c>
@@ -29652,15 +29817,19 @@
       <c r="C40" t="s">
         <v>273</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'000100'</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000039','G00008','M00039',B'000100');</v>
+      </c>
+      <c r="F40">
         <v>4</v>
       </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000039','G00008','M00039',4);</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>528</v>
       </c>
@@ -29670,15 +29839,19 @@
       <c r="C41" t="s">
         <v>274</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'001000'</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000040','G00008','M00040',B'001000');</v>
+      </c>
+      <c r="F41">
         <v>8</v>
       </c>
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000040','G00008','M00040',8);</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>529</v>
       </c>
@@ -29688,15 +29861,19 @@
       <c r="C42" t="s">
         <v>275</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'010000'</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000041','G00008','M00041',B'010000');</v>
+      </c>
+      <c r="F42">
         <v>16</v>
       </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000041','G00008','M00041',16);</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>530</v>
       </c>
@@ -29706,15 +29883,19 @@
       <c r="C43" t="s">
         <v>276</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'100000'</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000042','G00008','M00042',B'100000');</v>
+      </c>
+      <c r="F43">
         <v>32</v>
       </c>
-      <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000042','G00008','M00042',32);</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>531</v>
       </c>
@@ -29724,15 +29905,19 @@
       <c r="C44" t="s">
         <v>277</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="5" t="str">
+        <f>"B'"&amp;DEC2BIN(F44,9)&amp;"'"</f>
+        <v>B'000000001'</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000043','G00009','M00043',B'000000001');</v>
+      </c>
+      <c r="F44">
         <v>1</v>
       </c>
-      <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000043','G00009','M00043',1);</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>532</v>
       </c>
@@ -29742,15 +29927,23 @@
       <c r="C45" t="s">
         <v>278</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="5" t="e">
+        <f>"B'"&amp;DEC2BIN(F45,COUNTIFS($B$2:$B$174,B45)/10)&amp;"'"</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E45" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F45">
         <v>2</v>
       </c>
-      <c r="E45" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000044','G00009','M00044',2);</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <f>MOD(COUNTIFS($B$2:$B$174,B45),10)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>533</v>
       </c>
@@ -29760,15 +29953,19 @@
       <c r="C46" t="s">
         <v>279</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E46" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F46">
         <v>4</v>
       </c>
-      <c r="E46" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000045','G00009','M00045',4);</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>534</v>
       </c>
@@ -29778,15 +29975,19 @@
       <c r="C47" t="s">
         <v>280</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E47" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F47">
         <v>8</v>
       </c>
-      <c r="E47" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000046','G00009','M00046',8);</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>535</v>
       </c>
@@ -29796,15 +29997,19 @@
       <c r="C48" t="s">
         <v>281</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E48" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F48">
         <v>16</v>
       </c>
-      <c r="E48" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000047','G00009','M00047',16);</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>536</v>
       </c>
@@ -29814,15 +30019,19 @@
       <c r="C49" t="s">
         <v>282</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E49" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F49">
         <v>32</v>
       </c>
-      <c r="E49" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000048','G00009','M00048',32);</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>537</v>
       </c>
@@ -29832,15 +30041,19 @@
       <c r="C50" t="s">
         <v>283</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E50" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F50">
         <v>64</v>
       </c>
-      <c r="E50" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000049','G00009','M00049',64);</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>538</v>
       </c>
@@ -29850,15 +30063,19 @@
       <c r="C51" t="s">
         <v>284</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E51" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F51">
         <v>128</v>
       </c>
-      <c r="E51" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000050','G00009','M00050',128);</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>539</v>
       </c>
@@ -29868,15 +30085,19 @@
       <c r="C52" t="s">
         <v>285</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E52" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F52">
         <v>256</v>
       </c>
-      <c r="E52" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000051','G00009','M00051',256);</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>540</v>
       </c>
@@ -29886,15 +30107,19 @@
       <c r="C53" t="s">
         <v>286</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E53" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F53">
         <v>512</v>
       </c>
-      <c r="E53" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000052','G00009','M00052',512);</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>541</v>
       </c>
@@ -29904,15 +30129,19 @@
       <c r="C54" t="s">
         <v>287</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E54" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F54">
         <v>1024</v>
       </c>
-      <c r="E54" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000053','G00009','M00053',1024);</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>542</v>
       </c>
@@ -29922,15 +30151,19 @@
       <c r="C55" t="s">
         <v>288</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E55" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F55">
         <v>2048</v>
       </c>
-      <c r="E55" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000054','G00009','M00054',2048);</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>543</v>
       </c>
@@ -29940,15 +30173,19 @@
       <c r="C56" t="s">
         <v>289</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E56" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F56">
         <v>4096</v>
       </c>
-      <c r="E56" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000055','G00009','M00055',4096);</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>544</v>
       </c>
@@ -29958,15 +30195,19 @@
       <c r="C57" t="s">
         <v>290</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E57" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F57">
         <v>8192</v>
       </c>
-      <c r="E57" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000056','G00009','M00056',8192);</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>545</v>
       </c>
@@ -29976,15 +30217,19 @@
       <c r="C58" t="s">
         <v>291</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E58" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F58">
         <v>16384</v>
       </c>
-      <c r="E58" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000057','G00009','M00057',16384);</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>546</v>
       </c>
@@ -29994,15 +30239,19 @@
       <c r="C59" t="s">
         <v>292</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'00000001'</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000058','G00010','M00058',B'00000001');</v>
+      </c>
+      <c r="F59">
         <v>1</v>
       </c>
-      <c r="E59" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000058','G00010','M00058',1);</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>547</v>
       </c>
@@ -30012,15 +30261,19 @@
       <c r="C60" t="s">
         <v>293</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'00000010'</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000059','G00010','M00059',B'00000010');</v>
+      </c>
+      <c r="F60">
         <v>2</v>
       </c>
-      <c r="E60" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000059','G00010','M00059',2);</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>548</v>
       </c>
@@ -30030,15 +30283,19 @@
       <c r="C61" t="s">
         <v>294</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'00000100'</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000060','G00010','M00060',B'00000100');</v>
+      </c>
+      <c r="F61">
         <v>4</v>
       </c>
-      <c r="E61" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000060','G00010','M00060',4);</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>549</v>
       </c>
@@ -30048,15 +30305,19 @@
       <c r="C62" t="s">
         <v>295</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'00001000'</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000061','G00010','M00061',B'00001000');</v>
+      </c>
+      <c r="F62">
         <v>8</v>
       </c>
-      <c r="E62" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000061','G00010','M00061',8);</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>550</v>
       </c>
@@ -30066,15 +30327,19 @@
       <c r="C63" t="s">
         <v>296</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'00010000'</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000062','G00010','M00062',B'00010000');</v>
+      </c>
+      <c r="F63">
         <v>16</v>
       </c>
-      <c r="E63" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000062','G00010','M00062',16);</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>551</v>
       </c>
@@ -30084,15 +30349,19 @@
       <c r="C64" t="s">
         <v>297</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'00100000'</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000063','G00010','M00063',B'00100000');</v>
+      </c>
+      <c r="F64">
         <v>32</v>
       </c>
-      <c r="E64" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000063','G00010','M00063',32);</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>552</v>
       </c>
@@ -30102,15 +30371,19 @@
       <c r="C65" t="s">
         <v>298</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'01000000'</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000064','G00010','M00064',B'01000000');</v>
+      </c>
+      <c r="F65">
         <v>64</v>
       </c>
-      <c r="E65" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000064','G00010','M00064',64);</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>553</v>
       </c>
@@ -30120,15 +30393,19 @@
       <c r="C66" t="s">
         <v>299</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>B'10000000'</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000065','G00010','M00065',B'10000000');</v>
+      </c>
+      <c r="F66">
         <v>128</v>
       </c>
-      <c r="E66" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000065','G00010','M00065',128);</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>554</v>
       </c>
@@ -30138,15 +30415,19 @@
       <c r="C67" t="s">
         <v>300</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="5" t="str">
+        <f t="shared" ref="D67:D130" si="3">"B'"&amp;DEC2BIN(F67,COUNTIFS($B$2:$B$174,B67))&amp;"'"</f>
+        <v>B'000001'</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E130" si="4">"insert into member_groups(member_group_id,group_id,member_id,member_value) values('"&amp;A67&amp;"','"&amp;B67&amp;"','"&amp;C67&amp;"',"&amp;D67&amp;");"</f>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000066','G00011','M00066',B'000001');</v>
+      </c>
+      <c r="F67">
         <v>1</v>
       </c>
-      <c r="E67" t="str">
-        <f t="shared" ref="E67:E130" si="1">"insert into member_groups(member_group_id,group_id,member_id,member_value) values('"&amp;A67&amp;"','"&amp;B67&amp;"','"&amp;C67&amp;"',"&amp;D67&amp;");"</f>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000066','G00011','M00066',1);</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>555</v>
       </c>
@@ -30156,15 +30437,19 @@
       <c r="C68" t="s">
         <v>301</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'000010'</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000067','G00011','M00067',B'000010');</v>
+      </c>
+      <c r="F68">
         <v>2</v>
       </c>
-      <c r="E68" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000067','G00011','M00067',2);</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>556</v>
       </c>
@@ -30174,15 +30459,19 @@
       <c r="C69" t="s">
         <v>302</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'000100'</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000068','G00011','M00068',B'000100');</v>
+      </c>
+      <c r="F69">
         <v>4</v>
       </c>
-      <c r="E69" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000068','G00011','M00068',4);</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>557</v>
       </c>
@@ -30192,15 +30481,19 @@
       <c r="C70" t="s">
         <v>303</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'001000'</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000069','G00011','M00069',B'001000');</v>
+      </c>
+      <c r="F70">
         <v>8</v>
       </c>
-      <c r="E70" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000069','G00011','M00069',8);</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>558</v>
       </c>
@@ -30210,15 +30503,19 @@
       <c r="C71" t="s">
         <v>304</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'010000'</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000070','G00011','M00070',B'010000');</v>
+      </c>
+      <c r="F71">
         <v>16</v>
       </c>
-      <c r="E71" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000070','G00011','M00070',16);</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>559</v>
       </c>
@@ -30228,15 +30525,19 @@
       <c r="C72" t="s">
         <v>305</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'100000'</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000071','G00011','M00071',B'100000');</v>
+      </c>
+      <c r="F72">
         <v>32</v>
       </c>
-      <c r="E72" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000071','G00011','M00071',32);</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>560</v>
       </c>
@@ -30246,15 +30547,19 @@
       <c r="C73" t="s">
         <v>306</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E73" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F73">
         <v>1</v>
       </c>
-      <c r="E73" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000072','G00012','M00072',1);</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>561</v>
       </c>
@@ -30264,15 +30569,19 @@
       <c r="C74" t="s">
         <v>307</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E74" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F74">
         <v>2</v>
       </c>
-      <c r="E74" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000073','G00012','M00073',2);</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>562</v>
       </c>
@@ -30282,15 +30591,19 @@
       <c r="C75" t="s">
         <v>308</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E75" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F75">
         <v>4</v>
       </c>
-      <c r="E75" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000074','G00012','M00074',4);</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>563</v>
       </c>
@@ -30300,15 +30613,19 @@
       <c r="C76" t="s">
         <v>309</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E76" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F76">
         <v>8</v>
       </c>
-      <c r="E76" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000075','G00012','M00075',8);</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>564</v>
       </c>
@@ -30318,15 +30635,19 @@
       <c r="C77" t="s">
         <v>310</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E77" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F77">
         <v>16</v>
       </c>
-      <c r="E77" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000076','G00012','M00076',16);</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>565</v>
       </c>
@@ -30336,15 +30657,19 @@
       <c r="C78" t="s">
         <v>311</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E78" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F78">
         <v>32</v>
       </c>
-      <c r="E78" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000077','G00012','M00077',32);</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>566</v>
       </c>
@@ -30354,15 +30679,19 @@
       <c r="C79" t="s">
         <v>312</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E79" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F79">
         <v>64</v>
       </c>
-      <c r="E79" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000078','G00012','M00078',64);</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>567</v>
       </c>
@@ -30372,15 +30701,19 @@
       <c r="C80" t="s">
         <v>313</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E80" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F80">
         <v>128</v>
       </c>
-      <c r="E80" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000079','G00012','M00079',128);</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>568</v>
       </c>
@@ -30390,15 +30723,19 @@
       <c r="C81" t="s">
         <v>314</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E81" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F81">
         <v>256</v>
       </c>
-      <c r="E81" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000080','G00012','M00080',256);</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>569</v>
       </c>
@@ -30408,15 +30745,19 @@
       <c r="C82" t="s">
         <v>315</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E82" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F82">
         <v>512</v>
       </c>
-      <c r="E82" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000081','G00012','M00081',512);</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>570</v>
       </c>
@@ -30426,15 +30767,19 @@
       <c r="C83" t="s">
         <v>316</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E83" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F83">
         <v>1024</v>
       </c>
-      <c r="E83" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000082','G00012','M00082',1024);</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>571</v>
       </c>
@@ -30444,15 +30789,19 @@
       <c r="C84" t="s">
         <v>317</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E84" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F84">
         <v>2048</v>
       </c>
-      <c r="E84" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000083','G00012','M00083',2048);</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>572</v>
       </c>
@@ -30462,15 +30811,19 @@
       <c r="C85" t="s">
         <v>318</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'000001'</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000084','G00013','M00084',B'000001');</v>
+      </c>
+      <c r="F85">
         <v>1</v>
       </c>
-      <c r="E85" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000084','G00013','M00084',1);</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>573</v>
       </c>
@@ -30480,15 +30833,19 @@
       <c r="C86" t="s">
         <v>319</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'000010'</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000085','G00013','M00085',B'000010');</v>
+      </c>
+      <c r="F86">
         <v>2</v>
       </c>
-      <c r="E86" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000085','G00013','M00085',2);</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>574</v>
       </c>
@@ -30498,15 +30855,19 @@
       <c r="C87" t="s">
         <v>320</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'000100'</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000086','G00013','M00086',B'000100');</v>
+      </c>
+      <c r="F87">
         <v>4</v>
       </c>
-      <c r="E87" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000086','G00013','M00086',4);</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>575</v>
       </c>
@@ -30516,15 +30877,19 @@
       <c r="C88" t="s">
         <v>321</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'001000'</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000087','G00013','M00087',B'001000');</v>
+      </c>
+      <c r="F88">
         <v>8</v>
       </c>
-      <c r="E88" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000087','G00013','M00087',8);</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>576</v>
       </c>
@@ -30534,15 +30899,19 @@
       <c r="C89" t="s">
         <v>322</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'010000'</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000088','G00013','M00088',B'010000');</v>
+      </c>
+      <c r="F89">
         <v>16</v>
       </c>
-      <c r="E89" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000088','G00013','M00088',16);</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>577</v>
       </c>
@@ -30552,15 +30921,19 @@
       <c r="C90" t="s">
         <v>323</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'100000'</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000089','G00013','M00089',B'100000');</v>
+      </c>
+      <c r="F90">
         <v>32</v>
       </c>
-      <c r="E90" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000089','G00013','M00089',32);</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>578</v>
       </c>
@@ -30570,15 +30943,19 @@
       <c r="C91" t="s">
         <v>324</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'00000001'</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000090','G00014','M00090',B'00000001');</v>
+      </c>
+      <c r="F91">
         <v>1</v>
       </c>
-      <c r="E91" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000090','G00014','M00090',1);</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>579</v>
       </c>
@@ -30588,15 +30965,19 @@
       <c r="C92" t="s">
         <v>325</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'00000010'</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000091','G00014','M00091',B'00000010');</v>
+      </c>
+      <c r="F92">
         <v>2</v>
       </c>
-      <c r="E92" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000091','G00014','M00091',2);</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>580</v>
       </c>
@@ -30606,15 +30987,19 @@
       <c r="C93" t="s">
         <v>326</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'00000100'</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000092','G00014','M00092',B'00000100');</v>
+      </c>
+      <c r="F93">
         <v>4</v>
       </c>
-      <c r="E93" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000092','G00014','M00092',4);</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>581</v>
       </c>
@@ -30624,15 +31009,19 @@
       <c r="C94" t="s">
         <v>327</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'00001000'</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000093','G00014','M00093',B'00001000');</v>
+      </c>
+      <c r="F94">
         <v>8</v>
       </c>
-      <c r="E94" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000093','G00014','M00093',8);</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>582</v>
       </c>
@@ -30642,15 +31031,19 @@
       <c r="C95" t="s">
         <v>328</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'00010000'</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000094','G00014','M00094',B'00010000');</v>
+      </c>
+      <c r="F95">
         <v>16</v>
       </c>
-      <c r="E95" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000094','G00014','M00094',16);</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>583</v>
       </c>
@@ -30660,15 +31053,19 @@
       <c r="C96" t="s">
         <v>329</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'00100000'</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000095','G00014','M00095',B'00100000');</v>
+      </c>
+      <c r="F96">
         <v>32</v>
       </c>
-      <c r="E96" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000095','G00014','M00095',32);</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>584</v>
       </c>
@@ -30678,15 +31075,19 @@
       <c r="C97" t="s">
         <v>330</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'01000000'</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000096','G00014','M00096',B'01000000');</v>
+      </c>
+      <c r="F97">
         <v>64</v>
       </c>
-      <c r="E97" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000096','G00014','M00096',64);</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>585</v>
       </c>
@@ -30696,15 +31097,19 @@
       <c r="C98" t="s">
         <v>331</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'10000000'</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000097','G00014','M00097',B'10000000');</v>
+      </c>
+      <c r="F98">
         <v>128</v>
       </c>
-      <c r="E98" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000097','G00014','M00097',128);</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>586</v>
       </c>
@@ -30714,15 +31119,19 @@
       <c r="C99" t="s">
         <v>332</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E99" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F99">
         <v>1</v>
       </c>
-      <c r="E99" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000098','G00015','M00098',1);</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>587</v>
       </c>
@@ -30732,15 +31141,19 @@
       <c r="C100" t="s">
         <v>333</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E100" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F100">
         <v>2</v>
       </c>
-      <c r="E100" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000099','G00015','M00099',2);</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>588</v>
       </c>
@@ -30750,15 +31163,19 @@
       <c r="C101" t="s">
         <v>334</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E101" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F101">
         <v>4</v>
       </c>
-      <c r="E101" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000100','G00015','M00100',4);</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>589</v>
       </c>
@@ -30768,15 +31185,19 @@
       <c r="C102" t="s">
         <v>335</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E102" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F102">
         <v>8</v>
       </c>
-      <c r="E102" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000101','G00015','M00101',8);</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>590</v>
       </c>
@@ -30786,15 +31207,19 @@
       <c r="C103" t="s">
         <v>336</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E103" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F103">
         <v>16</v>
       </c>
-      <c r="E103" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000102','G00015','M00102',16);</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>591</v>
       </c>
@@ -30804,15 +31229,19 @@
       <c r="C104" t="s">
         <v>337</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E104" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F104">
         <v>32</v>
       </c>
-      <c r="E104" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000103','G00015','M00103',32);</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>592</v>
       </c>
@@ -30822,15 +31251,19 @@
       <c r="C105" t="s">
         <v>338</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E105" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F105">
         <v>64</v>
       </c>
-      <c r="E105" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000104','G00015','M00104',64);</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>593</v>
       </c>
@@ -30840,15 +31273,19 @@
       <c r="C106" t="s">
         <v>339</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E106" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F106">
         <v>128</v>
       </c>
-      <c r="E106" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000105','G00015','M00105',128);</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>594</v>
       </c>
@@ -30858,15 +31295,19 @@
       <c r="C107" t="s">
         <v>340</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E107" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F107">
         <v>256</v>
       </c>
-      <c r="E107" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000106','G00015','M00106',256);</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>595</v>
       </c>
@@ -30876,15 +31317,19 @@
       <c r="C108" t="s">
         <v>341</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E108" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F108">
         <v>512</v>
       </c>
-      <c r="E108" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000107','G00015','M00107',512);</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>596</v>
       </c>
@@ -30894,15 +31339,19 @@
       <c r="C109" t="s">
         <v>342</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E109" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F109">
         <v>1024</v>
       </c>
-      <c r="E109" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000108','G00015','M00108',1024);</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>597</v>
       </c>
@@ -30912,15 +31361,19 @@
       <c r="C110" t="s">
         <v>343</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E110" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F110">
         <v>2048</v>
       </c>
-      <c r="E110" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000109','G00015','M00109',2048);</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>598</v>
       </c>
@@ -30930,15 +31383,19 @@
       <c r="C111" t="s">
         <v>344</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E111" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F111">
         <v>4096</v>
       </c>
-      <c r="E111" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000110','G00015','M00110',4096);</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>599</v>
       </c>
@@ -30948,15 +31405,19 @@
       <c r="C112" t="s">
         <v>345</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'000001'</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000111','G00016','M00111',B'000001');</v>
+      </c>
+      <c r="F112">
         <v>1</v>
       </c>
-      <c r="E112" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000111','G00016','M00111',1);</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>600</v>
       </c>
@@ -30966,15 +31427,19 @@
       <c r="C113" t="s">
         <v>346</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'000010'</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000112','G00016','M00112',B'000010');</v>
+      </c>
+      <c r="F113">
         <v>2</v>
       </c>
-      <c r="E113" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000112','G00016','M00112',2);</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>601</v>
       </c>
@@ -30984,15 +31449,19 @@
       <c r="C114" t="s">
         <v>347</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'000100'</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000113','G00016','M00113',B'000100');</v>
+      </c>
+      <c r="F114">
         <v>4</v>
       </c>
-      <c r="E114" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000113','G00016','M00113',4);</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>602</v>
       </c>
@@ -31002,15 +31471,19 @@
       <c r="C115" t="s">
         <v>348</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'001000'</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000114','G00016','M00114',B'001000');</v>
+      </c>
+      <c r="F115">
         <v>8</v>
       </c>
-      <c r="E115" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000114','G00016','M00114',8);</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>603</v>
       </c>
@@ -31020,15 +31493,19 @@
       <c r="C116" t="s">
         <v>349</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'010000'</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000115','G00016','M00115',B'010000');</v>
+      </c>
+      <c r="F116">
         <v>16</v>
       </c>
-      <c r="E116" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000115','G00016','M00115',16);</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>604</v>
       </c>
@@ -31038,15 +31515,19 @@
       <c r="C117" t="s">
         <v>350</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'100000'</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000116','G00016','M00116',B'100000');</v>
+      </c>
+      <c r="F117">
         <v>32</v>
       </c>
-      <c r="E117" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000116','G00016','M00116',32);</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>605</v>
       </c>
@@ -31056,15 +31537,19 @@
       <c r="C118" t="s">
         <v>351</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'00000001'</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000117','G00017','M00117',B'00000001');</v>
+      </c>
+      <c r="F118">
         <v>1</v>
       </c>
-      <c r="E118" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000117','G00017','M00117',1);</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>606</v>
       </c>
@@ -31074,15 +31559,19 @@
       <c r="C119" t="s">
         <v>352</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'00000010'</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000118','G00017','M00118',B'00000010');</v>
+      </c>
+      <c r="F119">
         <v>2</v>
       </c>
-      <c r="E119" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000118','G00017','M00118',2);</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>607</v>
       </c>
@@ -31092,15 +31581,19 @@
       <c r="C120" t="s">
         <v>353</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'00000100'</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000119','G00017','M00119',B'00000100');</v>
+      </c>
+      <c r="F120">
         <v>4</v>
       </c>
-      <c r="E120" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000119','G00017','M00119',4);</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>608</v>
       </c>
@@ -31110,15 +31603,19 @@
       <c r="C121" t="s">
         <v>354</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'00001000'</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000120','G00017','M00120',B'00001000');</v>
+      </c>
+      <c r="F121">
         <v>8</v>
       </c>
-      <c r="E121" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000120','G00017','M00120',8);</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>609</v>
       </c>
@@ -31128,15 +31625,19 @@
       <c r="C122" t="s">
         <v>355</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'00010000'</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000121','G00017','M00121',B'00010000');</v>
+      </c>
+      <c r="F122">
         <v>16</v>
       </c>
-      <c r="E122" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000121','G00017','M00121',16);</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>610</v>
       </c>
@@ -31146,15 +31647,19 @@
       <c r="C123" t="s">
         <v>356</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'00100000'</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000122','G00017','M00122',B'00100000');</v>
+      </c>
+      <c r="F123">
         <v>32</v>
       </c>
-      <c r="E123" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000122','G00017','M00122',32);</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>611</v>
       </c>
@@ -31164,15 +31669,19 @@
       <c r="C124" t="s">
         <v>357</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'01000000'</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000123','G00017','M00123',B'01000000');</v>
+      </c>
+      <c r="F124">
         <v>64</v>
       </c>
-      <c r="E124" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000123','G00017','M00123',64);</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>612</v>
       </c>
@@ -31182,15 +31691,19 @@
       <c r="C125" t="s">
         <v>358</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'10000000'</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000124','G00017','M00124',B'10000000');</v>
+      </c>
+      <c r="F125">
         <v>128</v>
       </c>
-      <c r="E125" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000124','G00017','M00124',128);</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>613</v>
       </c>
@@ -31200,15 +31713,19 @@
       <c r="C126" t="s">
         <v>359</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'01'</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000125','G00018','M00125',B'01');</v>
+      </c>
+      <c r="F126">
         <v>1</v>
       </c>
-      <c r="E126" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000125','G00018','M00125',1);</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>614</v>
       </c>
@@ -31218,15 +31735,19 @@
       <c r="C127" t="s">
         <v>360</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'10'</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000126','G00018','M00126',B'10');</v>
+      </c>
+      <c r="F127">
         <v>2</v>
       </c>
-      <c r="E127" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000126','G00018','M00126',2);</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>615</v>
       </c>
@@ -31236,15 +31757,19 @@
       <c r="C128" t="s">
         <v>361</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'001'</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000127','G00019','M00127',B'001');</v>
+      </c>
+      <c r="F128">
         <v>1</v>
       </c>
-      <c r="E128" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000127','G00019','M00127',1);</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>616</v>
       </c>
@@ -31254,15 +31779,19 @@
       <c r="C129" t="s">
         <v>362</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'010'</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000128','G00019','M00128',B'010');</v>
+      </c>
+      <c r="F129">
         <v>2</v>
       </c>
-      <c r="E129" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000128','G00019','M00128',2);</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>617</v>
       </c>
@@ -31272,15 +31801,19 @@
       <c r="C130" t="s">
         <v>363</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>B'100'</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000129','G00019','M00129',B'100');</v>
+      </c>
+      <c r="F130">
         <v>4</v>
       </c>
-      <c r="E130" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000129','G00019','M00129',4);</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>618</v>
       </c>
@@ -31290,152 +31823,188 @@
       <c r="C131" t="s">
         <v>364</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="5" t="str">
+        <f t="shared" ref="D131" si="5">"B'"&amp;DEC2BIN(F131,COUNTIFS($B$2:$B$174,B131))&amp;"'"</f>
+        <v>B'1'</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" ref="E131" si="6">"insert into member_groups(member_group_id,group_id,member_id,member_value) values('"&amp;A131&amp;"','"&amp;B131&amp;"','"&amp;C131&amp;"',"&amp;D131&amp;");"</f>
+        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000130','G00020','M00130',B'1');</v>
+      </c>
+      <c r="F131">
         <v>1</v>
       </c>
-      <c r="E131" t="str">
-        <f t="shared" ref="E131" si="2">"insert into member_groups(member_group_id,group_id,member_id,member_value) values('"&amp;A131&amp;"','"&amp;B131&amp;"','"&amp;C131&amp;"',"&amp;D131&amp;");"</f>
-        <v>insert into member_groups(member_group_id,group_id,member_id,member_value) values('MG000130','G00020','M00130',1);</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>619</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" ref="B132:B194" si="3">VLOOKUP(A132,$A$1:$B$20,2)</f>
+        <f t="shared" ref="B132:B194" si="7">VLOOKUP(A132,$A$1:$B$20,2)</f>
         <v>G00004</v>
       </c>
       <c r="C132" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D132" s="5" t="str">
+        <f t="shared" ref="D132:D133" si="8">DEC2BIN(F132,COUNTIFS($B$2:$B$174,$B$5))</f>
+        <v>00000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>620</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
       <c r="C133" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D133" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>00000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>621</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
       <c r="C134" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D134" s="5" t="str">
+        <f t="shared" ref="D134:D139" si="9">DEC2BIN(F134,COUNTIFS($B$2:$B$174,$B$5))</f>
+        <v>00000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>622</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
       <c r="C135" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D135" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>00000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>623</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
       <c r="C136" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D136" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>00000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>624</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
       <c r="C137" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D137" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>00000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>625</v>
       </c>
       <c r="B138" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
       <c r="C138" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D138" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>00000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>626</v>
       </c>
       <c r="B139" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
       <c r="C139" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D139" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>00000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>627</v>
       </c>
       <c r="B140" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>628</v>
       </c>
       <c r="B141" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>629</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>630</v>
       </c>
       <c r="B143" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>631</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31444,7 +32013,7 @@
         <v>632</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31453,7 +32022,7 @@
         <v>633</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31462,7 +32031,7 @@
         <v>634</v>
       </c>
       <c r="B147" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31471,7 +32040,7 @@
         <v>635</v>
       </c>
       <c r="B148" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31480,7 +32049,7 @@
         <v>636</v>
       </c>
       <c r="B149" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31489,7 +32058,7 @@
         <v>637</v>
       </c>
       <c r="B150" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31498,7 +32067,7 @@
         <v>638</v>
       </c>
       <c r="B151" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31507,7 +32076,7 @@
         <v>639</v>
       </c>
       <c r="B152" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31516,7 +32085,7 @@
         <v>640</v>
       </c>
       <c r="B153" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31525,7 +32094,7 @@
         <v>641</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31534,7 +32103,7 @@
         <v>642</v>
       </c>
       <c r="B155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31543,7 +32112,7 @@
         <v>643</v>
       </c>
       <c r="B156" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31552,7 +32121,7 @@
         <v>644</v>
       </c>
       <c r="B157" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31561,7 +32130,7 @@
         <v>645</v>
       </c>
       <c r="B158" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31570,7 +32139,7 @@
         <v>646</v>
       </c>
       <c r="B159" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31579,7 +32148,7 @@
         <v>647</v>
       </c>
       <c r="B160" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31588,7 +32157,7 @@
         <v>648</v>
       </c>
       <c r="B161" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31597,7 +32166,7 @@
         <v>649</v>
       </c>
       <c r="B162" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31606,7 +32175,7 @@
         <v>650</v>
       </c>
       <c r="B163" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31615,7 +32184,7 @@
         <v>651</v>
       </c>
       <c r="B164" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31624,7 +32193,7 @@
         <v>652</v>
       </c>
       <c r="B165" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31633,7 +32202,7 @@
         <v>653</v>
       </c>
       <c r="B166" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31642,7 +32211,7 @@
         <v>654</v>
       </c>
       <c r="B167" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31651,7 +32220,7 @@
         <v>655</v>
       </c>
       <c r="B168" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31660,7 +32229,7 @@
         <v>656</v>
       </c>
       <c r="B169" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31669,7 +32238,7 @@
         <v>657</v>
       </c>
       <c r="B170" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31678,7 +32247,7 @@
         <v>658</v>
       </c>
       <c r="B171" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31687,7 +32256,7 @@
         <v>659</v>
       </c>
       <c r="B172" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31696,7 +32265,7 @@
         <v>660</v>
       </c>
       <c r="B173" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
@@ -31705,481 +32274,481 @@
         <v>661</v>
       </c>
       <c r="B174" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>G00004</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B175" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B176" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" t="e">
-        <f t="shared" ref="B195:B253" si="4">VLOOKUP(A195,$A$1:$B$20,2)</f>
+        <f t="shared" ref="B195:B253" si="10">VLOOKUP(A195,$A$1:$B$20,2)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B206" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B232" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B233" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B234" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B236" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B240" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B242" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B244" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B246" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B247" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B248" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B249" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B250" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B251" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B252" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B253" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -32191,10 +32760,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G25"/>
+      <selection activeCell="H2" sqref="H2:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32206,7 +32775,7 @@
     <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -32226,7 +32795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>662</v>
       </c>
@@ -32242,15 +32811,19 @@
       <c r="E2" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="str">
+        <f>"B'"&amp;DEC2BIN(G2,COUNTIFS(Member_groups!$B$2:$B$131,B2))&amp;"'"</f>
+        <v>B'111'</v>
+      </c>
+      <c r="G2">
         <v>7</v>
       </c>
-      <c r="G2" t="str">
-        <f>"insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;",to_date('"&amp;E2&amp;"','DD-MM-YYYY'),"&amp;F2&amp;");"</f>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00001','G00001','toll',5,to_date('15-03-2017','DD-MM-YYYY'),7);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="str">
+        <f>"insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;",to_date('"&amp;E2&amp;"','DD-MM-YYYY'),"&amp;F2&amp;");"</f>
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00001','G00001','toll',5,to_date('15-03-2017','DD-MM-YYYY'),B'111');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>663</v>
       </c>
@@ -32266,15 +32839,19 @@
       <c r="E3" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="str">
+        <f>"B'"&amp;DEC2BIN(G3,COUNTIFS(Member_groups!$B$2:$B$131,B3))&amp;"'"</f>
+        <v>B'111'</v>
+      </c>
+      <c r="G3">
         <v>7</v>
       </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G26" si="0">"insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",to_date('"&amp;E3&amp;"','DD-MM-YYYY'),"&amp;F3&amp;");"</f>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00002','G00001','petrol',50,to_date('15-03-2017','DD-MM-YYYY'),7);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H25" si="0">"insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",to_date('"&amp;E3&amp;"','DD-MM-YYYY'),"&amp;F3&amp;");"</f>
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00002','G00001','petrol',50,to_date('15-03-2017','DD-MM-YYYY'),B'111');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>664</v>
       </c>
@@ -32290,15 +32867,19 @@
       <c r="E4" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="str">
+        <f>"B'"&amp;DEC2BIN(G4,COUNTIFS(Member_groups!$B$2:$B$131,B4))&amp;"'"</f>
+        <v>B'111'</v>
+      </c>
+      <c r="G4">
         <v>7</v>
       </c>
-      <c r="G4" t="str">
+      <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00003','G00001','lodge',40,to_date('15-03-2017','DD-MM-YYYY'),7);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00003','G00001','lodge',40,to_date('15-03-2017','DD-MM-YYYY'),B'111');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>665</v>
       </c>
@@ -32314,15 +32895,19 @@
       <c r="E5" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="str">
+        <f>"B'"&amp;DEC2BIN(G5,COUNTIFS(Member_groups!$B$2:$B$131,B5))&amp;"'"</f>
+        <v>B'011'</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="G5" t="str">
+      <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00004','G00001','water',3,to_date('15-03-2017','DD-MM-YYYY'),3);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00004','G00001','water',3,to_date('15-03-2017','DD-MM-YYYY'),B'011');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>666</v>
       </c>
@@ -32338,15 +32923,19 @@
       <c r="E6" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="str">
+        <f>"B'"&amp;DEC2BIN(G6,COUNTIFS(Member_groups!$B$2:$B$131,B6))&amp;"'"</f>
+        <v>B'001'</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="G6" t="str">
+      <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00005','G00001','tea',10,to_date('15-03-2017','DD-MM-YYYY'),1);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00005','G00001','tea',10,to_date('15-03-2017','DD-MM-YYYY'),B'001');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>667</v>
       </c>
@@ -32362,15 +32951,19 @@
       <c r="E7" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="str">
+        <f>"B'"&amp;DEC2BIN(G7,COUNTIFS(Member_groups!$B$2:$B$131,B7))&amp;"'"</f>
+        <v>B'011'</v>
+      </c>
+      <c r="G7">
         <v>3</v>
       </c>
-      <c r="G7" t="str">
+      <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00006','G00001','breakfast ',22,to_date('15-03-2017','DD-MM-YYYY'),3);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00006','G00001','breakfast ',22,to_date('15-03-2017','DD-MM-YYYY'),B'011');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>668</v>
       </c>
@@ -32386,15 +32979,19 @@
       <c r="E8" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="str">
+        <f>"B'"&amp;DEC2BIN(G8,COUNTIFS(Member_groups!$B$2:$B$131,B8))&amp;"'"</f>
+        <v>B'111'</v>
+      </c>
+      <c r="G8">
         <v>7</v>
       </c>
-      <c r="G8" t="str">
+      <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00007','G00001','snacks',40,to_date('15-03-2017','DD-MM-YYYY'),7);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00007','G00001','snacks',40,to_date('15-03-2017','DD-MM-YYYY'),B'111');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>669</v>
       </c>
@@ -32410,15 +33007,19 @@
       <c r="E9" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="str">
+        <f>"B'"&amp;DEC2BIN(G9,COUNTIFS(Member_groups!$B$2:$B$131,B9))&amp;"'"</f>
+        <v>B'011'</v>
+      </c>
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="G9" t="str">
+      <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00008','G00001','fruits',35,to_date('16-03-2017','DD-MM-YYYY'),3);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00008','G00001','fruits',35,to_date('16-03-2017','DD-MM-YYYY'),B'011');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>670</v>
       </c>
@@ -32434,15 +33035,19 @@
       <c r="E10" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="str">
+        <f>"B'"&amp;DEC2BIN(G10,COUNTIFS(Member_groups!$B$2:$B$131,B10))&amp;"'"</f>
+        <v>B'111'</v>
+      </c>
+      <c r="G10">
         <v>7</v>
       </c>
-      <c r="G10" t="str">
+      <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00009','G00001','water ',6,to_date('16-03-2017','DD-MM-YYYY'),7);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00009','G00001','water ',6,to_date('16-03-2017','DD-MM-YYYY'),B'111');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>671</v>
       </c>
@@ -32458,15 +33063,19 @@
       <c r="E11" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="str">
+        <f>"B'"&amp;DEC2BIN(G11,COUNTIFS(Member_groups!$B$2:$B$131,B11))&amp;"'"</f>
+        <v>B'100'</v>
+      </c>
+      <c r="G11">
         <v>4</v>
       </c>
-      <c r="G11" t="str">
+      <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00010','G00001','temple ticket',7,to_date('16-03-2017','DD-MM-YYYY'),4);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00010','G00001','temple ticket',7,to_date('16-03-2017','DD-MM-YYYY'),B'100');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>672</v>
       </c>
@@ -32482,15 +33091,19 @@
       <c r="E12" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="str">
+        <f>"B'"&amp;DEC2BIN(G12,COUNTIFS(Member_groups!$B$2:$B$131,B12))&amp;"'"</f>
+        <v>B'111'</v>
+      </c>
+      <c r="G12">
         <v>7</v>
       </c>
-      <c r="G12" t="str">
+      <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00011','G00001','lunch ',20,to_date('16-03-2017','DD-MM-YYYY'),7);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00011','G00001','lunch ',20,to_date('16-03-2017','DD-MM-YYYY'),B'111');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>673</v>
       </c>
@@ -32506,15 +33119,19 @@
       <c r="E13" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="str">
+        <f>"B'"&amp;DEC2BIN(G13,COUNTIFS(Member_groups!$B$2:$B$131,B13))&amp;"'"</f>
+        <v>B'111'</v>
+      </c>
+      <c r="G13">
         <v>7</v>
       </c>
-      <c r="G13" t="str">
+      <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00012','G00001','dinner ',31,to_date('16-03-2017','DD-MM-YYYY'),7);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00012','G00001','dinner ',31,to_date('16-03-2017','DD-MM-YYYY'),B'111');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>674</v>
       </c>
@@ -32530,15 +33147,19 @@
       <c r="E14" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="str">
+        <f>"B'"&amp;DEC2BIN(G14,COUNTIFS(Member_groups!$B$2:$B$131,B14))&amp;"'"</f>
+        <v>B'111'</v>
+      </c>
+      <c r="G14">
         <v>7</v>
       </c>
-      <c r="G14" t="str">
+      <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00013','G00001','cd',9,to_date('16-03-2017','DD-MM-YYYY'),7);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00013','G00001','cd',9,to_date('16-03-2017','DD-MM-YYYY'),B'111');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>675</v>
       </c>
@@ -32554,15 +33175,19 @@
       <c r="E15" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="str">
+        <f>"B'"&amp;DEC2BIN(G15,COUNTIFS(Member_groups!$B$2:$B$131,B15))&amp;"'"</f>
+        <v>B'111'</v>
+      </c>
+      <c r="G15">
         <v>7</v>
       </c>
-      <c r="G15" t="str">
+      <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00014','G00001','water ',6,to_date('16-03-2017','DD-MM-YYYY'),7);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00014','G00001','water ',6,to_date('16-03-2017','DD-MM-YYYY'),B'111');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>676</v>
       </c>
@@ -32578,15 +33203,19 @@
       <c r="E16" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="str">
+        <f>"B'"&amp;DEC2BIN(G16,COUNTIFS(Member_groups!$B$2:$B$131,B16))&amp;"'"</f>
+        <v>B'111'</v>
+      </c>
+      <c r="G16">
         <v>7</v>
       </c>
-      <c r="G16" t="str">
+      <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00015','G00001','toll',5,to_date('16-03-2017','DD-MM-YYYY'),7);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00015','G00001','toll',5,to_date('16-03-2017','DD-MM-YYYY'),B'111');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>677</v>
       </c>
@@ -32602,15 +33231,19 @@
       <c r="E17" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="str">
+        <f>"B'"&amp;DEC2BIN(G17,COUNTIFS(Member_groups!$B$2:$B$131,B17))&amp;"'"</f>
+        <v>B'111'</v>
+      </c>
+      <c r="G17">
         <v>7</v>
       </c>
-      <c r="G17" t="str">
+      <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00016','G00001','breakfast ',23,to_date('16-03-2017','DD-MM-YYYY'),7);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00016','G00001','breakfast ',23,to_date('16-03-2017','DD-MM-YYYY'),B'111');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>678</v>
       </c>
@@ -32626,15 +33259,19 @@
       <c r="E18" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="str">
+        <f>"B'"&amp;DEC2BIN(G18,COUNTIFS(Member_groups!$B$2:$B$131,B18))&amp;"'"</f>
+        <v>B'111'</v>
+      </c>
+      <c r="G18">
         <v>7</v>
       </c>
-      <c r="G18" t="str">
+      <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00017','G00001','petrol',50,to_date('17-03-2017','DD-MM-YYYY'),7);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00017','G00001','petrol',50,to_date('17-03-2017','DD-MM-YYYY'),B'111');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>679</v>
       </c>
@@ -32650,15 +33287,19 @@
       <c r="E19" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="str">
+        <f>"B'"&amp;DEC2BIN(G19,COUNTIFS(Member_groups!$B$2:$B$131,B19))&amp;"'"</f>
+        <v>B'011'</v>
+      </c>
+      <c r="G19">
         <v>3</v>
       </c>
-      <c r="G19" t="str">
+      <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00018','G00001','entry ticket',9,to_date('17-03-2017','DD-MM-YYYY'),3);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00018','G00001','entry ticket',9,to_date('17-03-2017','DD-MM-YYYY'),B'011');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>680</v>
       </c>
@@ -32674,15 +33315,19 @@
       <c r="E20" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="str">
+        <f>"B'"&amp;DEC2BIN(G20,COUNTIFS(Member_groups!$B$2:$B$131,B20))&amp;"'"</f>
+        <v>B'111'</v>
+      </c>
+      <c r="G20">
         <v>7</v>
       </c>
-      <c r="G20" t="str">
+      <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00019','G00001','room',100,to_date('17-03-2017','DD-MM-YYYY'),7);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00019','G00001','room',100,to_date('17-03-2017','DD-MM-YYYY'),B'111');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>681</v>
       </c>
@@ -32698,15 +33343,19 @@
       <c r="E21" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="str">
+        <f>"B'"&amp;DEC2BIN(G21,COUNTIFS(Member_groups!$B$2:$B$131,B21))&amp;"'"</f>
+        <v>B'011'</v>
+      </c>
+      <c r="G21">
         <v>3</v>
       </c>
-      <c r="G21" t="str">
+      <c r="H21" t="str">
         <f t="shared" si="0"/>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00020','G00001','dinner',15,to_date('17-03-2017','DD-MM-YYYY'),3);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00020','G00001','dinner',15,to_date('17-03-2017','DD-MM-YYYY'),B'011');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>682</v>
       </c>
@@ -32722,15 +33371,19 @@
       <c r="E22" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="str">
+        <f>"B'"&amp;DEC2BIN(G22,COUNTIFS(Member_groups!$B$2:$B$131,B22))&amp;"'"</f>
+        <v>B'111'</v>
+      </c>
+      <c r="G22">
         <v>7</v>
       </c>
-      <c r="G22" t="str">
+      <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00021','G00001','petrol',30,to_date('17-03-2017','DD-MM-YYYY'),7);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00021','G00001','petrol',30,to_date('17-03-2017','DD-MM-YYYY'),B'111');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>683</v>
       </c>
@@ -32746,15 +33399,19 @@
       <c r="E23" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="str">
+        <f>"B'"&amp;DEC2BIN(G23,COUNTIFS(Member_groups!$B$2:$B$131,B23))&amp;"'"</f>
+        <v>B'111'</v>
+      </c>
+      <c r="G23">
         <v>7</v>
       </c>
-      <c r="G23" t="str">
+      <c r="H23" t="str">
         <f t="shared" si="0"/>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00022','G00001','petrol',30,to_date('17-03-2017','DD-MM-YYYY'),7);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00022','G00001','petrol',30,to_date('17-03-2017','DD-MM-YYYY'),B'111');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>684</v>
       </c>
@@ -32770,15 +33427,19 @@
       <c r="E24" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="str">
+        <f>"B'"&amp;DEC2BIN(G24,COUNTIFS(Member_groups!$B$2:$B$131,B24))&amp;"'"</f>
+        <v>B'001'</v>
+      </c>
+      <c r="G24">
         <v>1</v>
       </c>
-      <c r="G24" t="str">
+      <c r="H24" t="str">
         <f t="shared" si="0"/>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00023','G00001','tea',9,to_date('17-03-2017','DD-MM-YYYY'),1);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00023','G00001','tea',9,to_date('17-03-2017','DD-MM-YYYY'),B'001');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>685</v>
       </c>
@@ -32794,27 +33455,31 @@
       <c r="E25" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="str">
+        <f>"B'"&amp;DEC2BIN(G25,COUNTIFS(Member_groups!$B$2:$B$131,B25))&amp;"'"</f>
+        <v>B'111'</v>
+      </c>
+      <c r="G25">
         <v>7</v>
       </c>
-      <c r="G25" t="str">
+      <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00024','G00001','Vechile rent',380,to_date('17-03-2017','DD-MM-YYYY'),7);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>insert into expenses(transaction_id,group_id,item,cost,expenditure_date,expenses_shared_with) values('T00024','G00001','Vechile rent',380,to_date('17-03-2017','DD-MM-YYYY'),B'111');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>686</v>
       </c>
       <c r="B26" t="s">
         <v>448</v>
       </c>
-      <c r="G26" t="str">
-        <f t="shared" si="0"/>
+      <c r="H26" t="str">
+        <f>"insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('"&amp;A26&amp;"','"&amp;B26&amp;"','"&amp;C26&amp;"',"&amp;D26&amp;",to_date('"&amp;E26&amp;"','DD-MM-YYYY'),"&amp;F26&amp;");"</f>
         <v>insert into expenses(transaction_id,group_id,item,cost,,expenditure_date,expenses_shared_with) values('T00025','G00001','',,to_date('','DD-MM-YYYY'),);</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>687</v>
       </c>
@@ -32822,27 +33487,27 @@
         <v>448</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>692</v>
       </c>
@@ -32980,10 +33645,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G2" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32991,10 +33656,10 @@
     <col min="1" max="1" width="12.21875" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" customWidth="1"/>
     <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="4" max="5" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -33007,8 +33672,11 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>735</v>
       </c>
@@ -33022,11 +33690,18 @@
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <f>"insert into tasks(task_id,group_id,task,status) values('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;");"</f>
-        <v>insert into tasks(task_id,group_id,task,status) values('L00001','G00006','Clean the kitchen',0);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <f>"B'"&amp;DEC2BIN(F2,COUNTIFS(Member_groups!$B$2:$B$131,B2))&amp;"'"</f>
+        <v>B'1111111'</v>
+      </c>
+      <c r="F2">
+        <v>127</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"insert into tasks(task_id,group_id,task,assigned_to,status) values('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;E2&amp;","&amp;D2&amp;");"</f>
+        <v>insert into tasks(task_id,group_id,task,assigned_to,status) values('L00001','G00006','Clean the kitchen',B'1111111',0);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>736</v>
       </c>
@@ -33040,11 +33715,18 @@
         <v>0</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E13" si="0">"insert into tasks(task_id,group_id,task,status) values('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;");"</f>
-        <v>insert into tasks(task_id,group_id,task,status) values('L00002','G00006','Bring Grocery',0);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <f>"B'"&amp;DEC2BIN(F3,COUNTIFS(Member_groups!$B$2:$B$131,B3))&amp;"'"</f>
+        <v>B'1111111'</v>
+      </c>
+      <c r="F3">
+        <v>127</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G13" si="0">"insert into tasks(task_id,group_id,task,assigned_to,status) values('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;E3&amp;","&amp;D3&amp;");"</f>
+        <v>insert into tasks(task_id,group_id,task,assigned_to,status) values('L00002','G00006','Bring Grocery',B'1111111',0);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>737</v>
       </c>
@@ -33058,11 +33740,18 @@
         <v>0</v>
       </c>
       <c r="E4" t="str">
+        <f>"B'"&amp;DEC2BIN(F4,COUNTIFS(Member_groups!$B$2:$B$131,B4))&amp;"'"</f>
+        <v>B'1000000'</v>
+      </c>
+      <c r="F4">
+        <v>64</v>
+      </c>
+      <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tasks(task_id,group_id,task,status) values('L00003','G00006','Repair the door knob',0);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>insert into tasks(task_id,group_id,task,assigned_to,status) values('L00003','G00006','Repair the door knob',B'1000000',0);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>738</v>
       </c>
@@ -33076,11 +33765,18 @@
         <v>0</v>
       </c>
       <c r="E5" t="str">
+        <f>"B'"&amp;DEC2BIN(F5,COUNTIFS(Member_groups!$B$2:$B$131,B5))&amp;"'"</f>
+        <v>B'0010000'</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tasks(task_id,group_id,task,status) values('L00004','G00006','Pay the internet bill',0);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>insert into tasks(task_id,group_id,task,assigned_to,status) values('L00004','G00006','Pay the internet bill',B'0010000',0);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>739</v>
       </c>
@@ -33094,11 +33790,18 @@
         <v>0</v>
       </c>
       <c r="E6" t="str">
+        <f>"B'"&amp;DEC2BIN(F6,COUNTIFS(Member_groups!$B$2:$B$131,B6))&amp;"'"</f>
+        <v>B'01000'</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tasks(task_id,group_id,task,status) values('L00005','G00002','Fill the fuel',0);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>insert into tasks(task_id,group_id,task,assigned_to,status) values('L00005','G00002','Fill the fuel',B'01000',0);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>740</v>
       </c>
@@ -33112,11 +33815,18 @@
         <v>0</v>
       </c>
       <c r="E7" t="str">
+        <f>"B'"&amp;DEC2BIN(F7,COUNTIFS(Member_groups!$B$2:$B$131,B7))&amp;"'"</f>
+        <v>B'01100'</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tasks(task_id,group_id,task,status) values('L00006','G00002','Renew the insurance',0);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>insert into tasks(task_id,group_id,task,assigned_to,status) values('L00006','G00002','Renew the insurance',B'01100',0);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>741</v>
       </c>
@@ -33130,11 +33840,18 @@
         <v>0</v>
       </c>
       <c r="E8" t="str">
+        <f>"B'"&amp;DEC2BIN(F8,COUNTIFS(Member_groups!$B$2:$B$131,B8))&amp;"'"</f>
+        <v>B'00001'</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tasks(task_id,group_id,task,status) values('L00007','G00003','Send tax returns mail',0);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>insert into tasks(task_id,group_id,task,assigned_to,status) values('L00007','G00003','Send tax returns mail',B'00001',0);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>742</v>
       </c>
@@ -33148,11 +33865,18 @@
         <v>0</v>
       </c>
       <c r="E9" t="str">
+        <f>"B'"&amp;DEC2BIN(F9,COUNTIFS(Member_groups!$B$2:$B$131,B9))&amp;"'"</f>
+        <v>B'001000'</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tasks(task_id,group_id,task,status) values('L00008','G00004','Purchase toaster',0);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>insert into tasks(task_id,group_id,task,assigned_to,status) values('L00008','G00004','Purchase toaster',B'001000',0);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>743</v>
       </c>
@@ -33166,11 +33890,18 @@
         <v>0</v>
       </c>
       <c r="E10" t="str">
+        <f>"B'"&amp;DEC2BIN(F10,COUNTIFS(Member_groups!$B$2:$B$131,B10))&amp;"'"</f>
+        <v>B'000100'</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tasks(task_id,group_id,task,status) values('L00009','G00004','Purchase vaccum cleaner',0);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>insert into tasks(task_id,group_id,task,assigned_to,status) values('L00009','G00004','Purchase vaccum cleaner',B'000100',0);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>744</v>
       </c>
@@ -33184,11 +33915,18 @@
         <v>0</v>
       </c>
       <c r="E11" t="str">
+        <f>"B'"&amp;DEC2BIN(F11,COUNTIFS(Member_groups!$B$2:$B$131,B11))&amp;"'"</f>
+        <v>B'00010000'</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tasks(task_id,group_id,task,status) values('L00010','G00005','Book ticket',0);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>insert into tasks(task_id,group_id,task,assigned_to,status) values('L00010','G00005','Book ticket',B'00010000',0);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>745</v>
       </c>
@@ -33202,11 +33940,18 @@
         <v>0</v>
       </c>
       <c r="E12" t="str">
+        <f>"B'"&amp;DEC2BIN(F12,COUNTIFS(Member_groups!$B$2:$B$131,B12))&amp;"'"</f>
+        <v>B'00010000'</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tasks(task_id,group_id,task,status) values('L00011','G00005','Reserve hotel',0);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>insert into tasks(task_id,group_id,task,assigned_to,status) values('L00011','G00005','Reserve hotel',B'00010000',0);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>746</v>
       </c>
@@ -33220,8 +33965,15 @@
         <v>0</v>
       </c>
       <c r="E13" t="str">
+        <f>"B'"&amp;DEC2BIN(F13,COUNTIFS(Member_groups!$B$2:$B$131,B13))&amp;"'"</f>
+        <v>B'00000001'</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tasks(task_id,group_id,task,status) values('L00012','G00005','Buy roaming phone plan',0);</v>
+        <v>insert into tasks(task_id,group_id,task,assigned_to,status) values('L00012','G00005','Buy roaming phone plan',B'00000001',0);</v>
       </c>
     </row>
   </sheetData>
@@ -33270,20 +34022,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>961</v>
       </c>
@@ -33300,7 +34052,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>965</v>
       </c>
@@ -33310,18 +34062,26 @@
       <c r="C2" t="s">
         <v>966</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="str">
+        <f>"B'"&amp;DEC2BIN(F2,COUNTIFS(Member_groups!$B$2:$B$131,B2))&amp;"'"</f>
+        <v>B'0000001'</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"B'"&amp;DEC2BIN(G2,COUNTIFS(Member_groups!$B$2:$B$131,B2))&amp;"'"</f>
+        <v>B'0000001'</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="F2" t="str">
+      <c r="H2" t="str">
         <f>"insert into notes(note_id,group_id,text,share_with,pin_to) values('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;","&amp;E2&amp;");"</f>
-        <v>insert into notes(note_id,group_id,text,share_with,pin_to) values('N00001','G00006','Get Vanillaa ice cream and fruits for dinner.',1,1);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>insert into notes(note_id,group_id,text,share_with,pin_to) values('N00001','G00006','Get Vanillaa ice cream and fruits for dinner.',B'0000001',B'0000001');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>967</v>
       </c>
@@ -33331,18 +34091,26 @@
       <c r="C3" t="s">
         <v>968</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="str">
+        <f>"B'"&amp;DEC2BIN(F3,COUNTIFS(Member_groups!$B$2:$B$131,B3))&amp;"'"</f>
+        <v>B'0000001'</v>
+      </c>
+      <c r="E3" t="str">
+        <f>"B'"&amp;DEC2BIN(G3,COUNTIFS(Member_groups!$B$2:$B$131,B3))&amp;"'"</f>
+        <v>B'0000001'</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F7" si="0">"insert into notes(note_id,group_id,text,share_with,pin_to) values('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;","&amp;E3&amp;");"</f>
-        <v>insert into notes(note_id,group_id,text,share_with,pin_to) values('N00002','G00006','Return the Mayonese which you brought last time.',1,1);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H7" si="0">"insert into notes(note_id,group_id,text,share_with,pin_to) values('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;","&amp;E3&amp;");"</f>
+        <v>insert into notes(note_id,group_id,text,share_with,pin_to) values('N00002','G00006','Return the Mayonese which you brought last time.',B'0000001',B'0000001');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>970</v>
       </c>
@@ -33352,18 +34120,26 @@
       <c r="C4" t="s">
         <v>969</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="str">
+        <f>"B'"&amp;DEC2BIN(F4,COUNTIFS(Member_groups!$B$2:$B$131,B4))&amp;"'"</f>
+        <v>B'00000001'</v>
+      </c>
+      <c r="E4" t="str">
+        <f>"B'"&amp;DEC2BIN(G4,COUNTIFS(Member_groups!$B$2:$B$131,B4))&amp;"'"</f>
+        <v>B'00000001'</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="F4" t="str">
+      <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into notes(note_id,group_id,text,share_with,pin_to) values('N00003','G00005','Weather gets cold at night so get some cold weather clothes.',1,1);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>insert into notes(note_id,group_id,text,share_with,pin_to) values('N00003','G00005','Weather gets cold at night so get some cold weather clothes.',B'00000001',B'00000001');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>971</v>
       </c>
@@ -33373,18 +34149,26 @@
       <c r="C5" t="s">
         <v>978</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="str">
+        <f>"B'"&amp;DEC2BIN(F5,COUNTIFS(Member_groups!$B$2:$B$131,B5))&amp;"'"</f>
+        <v>B'00000001'</v>
+      </c>
+      <c r="E5" t="str">
+        <f>"B'"&amp;DEC2BIN(G5,COUNTIFS(Member_groups!$B$2:$B$131,B5))&amp;"'"</f>
+        <v>B'00000001'</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="F5" t="str">
+      <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into notes(note_id,group_id,text,share_with,pin_to) values('N00004','G00010','We will be staying overnight make sure to book the hotel two days before.',1,1);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>insert into notes(note_id,group_id,text,share_with,pin_to) values('N00004','G00010','We will be staying overnight make sure to book the hotel two days before.',B'00000001',B'00000001');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>972</v>
       </c>
@@ -33394,18 +34178,26 @@
       <c r="C6" t="s">
         <v>979</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="str">
+        <f>"B'"&amp;DEC2BIN(F6,COUNTIFS(Member_groups!$B$2:$B$131,B6))&amp;"'"</f>
+        <v>B'00000001'</v>
+      </c>
+      <c r="E6" t="str">
+        <f>"B'"&amp;DEC2BIN(G6,COUNTIFS(Member_groups!$B$2:$B$131,B6))&amp;"'"</f>
+        <v>B'00000001'</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="F6" t="str">
+      <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into notes(note_id,group_id,text,share_with,pin_to) values('N00005','G00014','We are going to the visa interview office on 15th this month.',1,1);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>insert into notes(note_id,group_id,text,share_with,pin_to) values('N00005','G00014','We are going to the visa interview office on 15th this month.',B'00000001',B'00000001');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>973</v>
       </c>
@@ -33415,33 +34207,41 @@
       <c r="C7" t="s">
         <v>980</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="str">
+        <f>"B'"&amp;DEC2BIN(F7,COUNTIFS(Member_groups!$B$2:$B$131,B7))&amp;"'"</f>
+        <v>B'00000001'</v>
+      </c>
+      <c r="E7" t="str">
+        <f>"B'"&amp;DEC2BIN(G7,COUNTIFS(Member_groups!$B$2:$B$131,B7))&amp;"'"</f>
+        <v>B'00000001'</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="F7" t="str">
+      <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into notes(note_id,group_id,text,share_with,pin_to) values('N00006','G00017','Wedding gift costs $10, will collect during the wedding.',1,1);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>insert into notes(note_id,group_id,text,share_with,pin_to) values('N00006','G00017','Wedding gift costs $10, will collect during the wedding.',B'00000001',B'00000001');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>977</v>
       </c>
